--- a/doc/MCU_Comparaison.xlsx
+++ b/doc/MCU_Comparaison.xlsx
@@ -613,7 +613,7 @@
   <dimension ref="B3:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
